--- a/ecobalyse_data/data/density_DB.xlsx
+++ b/ecobalyse_data/data/density_DB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="739">
   <si>
     <t xml:space="preserve">Food name and description</t>
   </si>
@@ -2182,6 +2182,15 @@
   </si>
   <si>
     <t xml:space="preserve">Zesty Italian ‘‘hamburger helper’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radis</t>
   </si>
   <si>
     <t xml:space="preserve">Bibliography</t>
@@ -2874,9 +2883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
+      <xdr:colOff>275760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2886,7 +2895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="114480" y="767520"/>
-          <a:ext cx="9825840" cy="6540120"/>
+          <a:ext cx="9823320" cy="6537600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3522,9 +3531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3534,7 +3543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="106560" y="83880"/>
-          <a:ext cx="9909720" cy="638280"/>
+          <a:ext cx="9907200" cy="635760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3618,9 +3627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>497520</xdr:colOff>
+      <xdr:colOff>495000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3630,7 +3639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10168920" y="83880"/>
-          <a:ext cx="3211560" cy="1198440"/>
+          <a:ext cx="3209040" cy="1195920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3902,7 +3911,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="1" sqref="A667:B667 N14"/>
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3923,14 +3932,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1667"/>
+  <dimension ref="A1:E1670"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B647" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B654" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A647" activeCellId="0" sqref="A647"/>
-      <selection pane="bottomRight" activeCell="B667" activeCellId="0" sqref="A667:B667"/>
+      <selection pane="bottomLeft" activeCell="A654" activeCellId="0" sqref="A654"/>
+      <selection pane="bottomRight" activeCell="B669" activeCellId="0" sqref="B669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12936,12 +12945,30 @@
       <c r="E666" s="14"/>
     </row>
     <row r="667" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B667" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E667" s="11"/>
     </row>
-    <row r="668" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B668" s="10" t="n">
+        <v>0.3</v>
+      </c>
       <c r="E668" s="11"/>
     </row>
-    <row r="669" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B669" s="10" t="n">
+        <v>0.6</v>
+      </c>
       <c r="E669" s="11"/>
     </row>
     <row r="670" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20854,7 +20881,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A667:B667 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20869,71 +20896,71 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20941,23 +20968,23 @@
         <v>59</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="40" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
